--- a/R_files/Rresults/euclidean_distance.xlsx
+++ b/R_files/Rresults/euclidean_distance.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="labels_dist_matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Prose-prose" sheetId="2" r:id="rId2"/>
     <sheet name="Verse-Verse" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>Aesch_Ag</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>prose/verse</t>
+  </si>
+  <si>
+    <t>iliad/iliad</t>
+  </si>
+  <si>
+    <t>od/od</t>
+  </si>
+  <si>
+    <t>il/od</t>
   </si>
 </sst>
 </file>
@@ -940,11 +949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,13 +3421,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD33"/>
+  <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,10 +4749,73 @@
         <v>1.0606114743676101</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>MAX($B$3:$AB$28)</f>
         <v>7.8299283325370403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE($L$13:$P$17)</f>
+        <v>1.4659863393178714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>MIN($L$13:$P$17)</f>
+        <v>1.11434220526667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>MAX($L$13:$P$17)</f>
+        <v>2.0564715675791101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>AVERAGE($S$18:$W$23)</f>
+        <v>1.5801381064926152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>MIN($S$18:$W$23)</f>
+        <v>1.0606114743676101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>MAX($S$18:$W$23)</f>
+        <v>2.5327570203963199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <f>AVERAGE($L$18:$Q$23)</f>
+        <v>1.9729451578779118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>MIN($L$18:$Q$23)</f>
+        <v>1.2808249618571099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>MAX($L$18:$Q$23)</f>
+        <v>2.9575595563597799</v>
       </c>
     </row>
   </sheetData>
